--- a/po_analysis_by_asin/B0CTTW2MVG_po_data.xlsx
+++ b/po_analysis_by_asin/B0CTTW2MVG_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45334</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>72</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45341</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>48</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45348</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>24</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45355</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>16</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45369</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45383</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>32</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45397</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>16</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>32</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>16</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45446</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>16</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>112</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>16</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>144</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>24</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>48</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>48</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>144</v>

--- a/po_analysis_by_asin/B0CTTW2MVG_po_data.xlsx
+++ b/po_analysis_by_asin/B0CTTW2MVG_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -573,7 +574,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -615,6 +616,327 @@
       </c>
       <c r="B6" t="n">
         <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.7692069887035649</v>
+      </c>
+      <c r="D2" t="n">
+        <v>69.0520796563995</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>34</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-7.955532883920144</v>
+      </c>
+      <c r="D3" t="n">
+        <v>67.44523191730671</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>34</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.338065547246209</v>
+      </c>
+      <c r="D4" t="n">
+        <v>69.26757157287912</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>34</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-3.204035835599543</v>
+      </c>
+      <c r="D5" t="n">
+        <v>72.79377594208064</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>34</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.010538309984279</v>
+      </c>
+      <c r="D6" t="n">
+        <v>72.62217035021941</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>34</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.890749618211533</v>
+      </c>
+      <c r="D7" t="n">
+        <v>72.48492553255309</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>34</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-3.246158272610398</v>
+      </c>
+      <c r="D8" t="n">
+        <v>69.88030073555178</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>34</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-4.083461251317643</v>
+      </c>
+      <c r="D9" t="n">
+        <v>73.41697274622136</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>34</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2.743391715239746</v>
+      </c>
+      <c r="D10" t="n">
+        <v>70.73852926483931</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>34</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-3.528125926273859</v>
+      </c>
+      <c r="D11" t="n">
+        <v>72.98435966249788</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>35</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1.216503804430944</v>
+      </c>
+      <c r="D12" t="n">
+        <v>71.8259297486007</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>35</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-4.044961993805395</v>
+      </c>
+      <c r="D13" t="n">
+        <v>70.68043647529622</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>35</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-3.658791758507211</v>
+      </c>
+      <c r="D14" t="n">
+        <v>71.62868853818114</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>35</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.2416966613679906</v>
+      </c>
+      <c r="D15" t="n">
+        <v>70.98745989549245</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>35</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-3.333810700980243</v>
+      </c>
+      <c r="D16" t="n">
+        <v>71.25297659124975</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>35</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-2.970782527550342</v>
+      </c>
+      <c r="D17" t="n">
+        <v>70.67009716549551</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>35</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.151534300639297</v>
+      </c>
+      <c r="D18" t="n">
+        <v>74.04969728370642</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>35</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.8246183840761592</v>
+      </c>
+      <c r="D19" t="n">
+        <v>73.9636143809456</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>35</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-3.082794757272273</v>
+      </c>
+      <c r="D20" t="n">
+        <v>70.72717948488932</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>35</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.2571064366668978</v>
+      </c>
+      <c r="D21" t="n">
+        <v>70.88579969423517</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CTTW2MVG_po_data.xlsx
+++ b/po_analysis_by_asin/B0CTTW2MVG_po_data.xlsx
@@ -629,7 +629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,16 +648,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -666,12 +656,6 @@
       <c r="B2" t="n">
         <v>33</v>
       </c>
-      <c r="C2" t="n">
-        <v>-0.7692069887035649</v>
-      </c>
-      <c r="D2" t="n">
-        <v>69.0520796563995</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -680,12 +664,6 @@
       <c r="B3" t="n">
         <v>34</v>
       </c>
-      <c r="C3" t="n">
-        <v>-7.955532883920144</v>
-      </c>
-      <c r="D3" t="n">
-        <v>67.44523191730671</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -694,12 +672,6 @@
       <c r="B4" t="n">
         <v>34</v>
       </c>
-      <c r="C4" t="n">
-        <v>-2.338065547246209</v>
-      </c>
-      <c r="D4" t="n">
-        <v>69.26757157287912</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -708,12 +680,6 @@
       <c r="B5" t="n">
         <v>34</v>
       </c>
-      <c r="C5" t="n">
-        <v>-3.204035835599543</v>
-      </c>
-      <c r="D5" t="n">
-        <v>72.79377594208064</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -722,12 +688,6 @@
       <c r="B6" t="n">
         <v>34</v>
       </c>
-      <c r="C6" t="n">
-        <v>-2.010538309984279</v>
-      </c>
-      <c r="D6" t="n">
-        <v>72.62217035021941</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -736,12 +696,6 @@
       <c r="B7" t="n">
         <v>34</v>
       </c>
-      <c r="C7" t="n">
-        <v>-1.890749618211533</v>
-      </c>
-      <c r="D7" t="n">
-        <v>72.48492553255309</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -750,12 +704,6 @@
       <c r="B8" t="n">
         <v>34</v>
       </c>
-      <c r="C8" t="n">
-        <v>-3.246158272610398</v>
-      </c>
-      <c r="D8" t="n">
-        <v>69.88030073555178</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -764,12 +712,6 @@
       <c r="B9" t="n">
         <v>34</v>
       </c>
-      <c r="C9" t="n">
-        <v>-4.083461251317643</v>
-      </c>
-      <c r="D9" t="n">
-        <v>73.41697274622136</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -778,12 +720,6 @@
       <c r="B10" t="n">
         <v>34</v>
       </c>
-      <c r="C10" t="n">
-        <v>-2.743391715239746</v>
-      </c>
-      <c r="D10" t="n">
-        <v>70.73852926483931</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -792,12 +728,6 @@
       <c r="B11" t="n">
         <v>34</v>
       </c>
-      <c r="C11" t="n">
-        <v>-3.528125926273859</v>
-      </c>
-      <c r="D11" t="n">
-        <v>72.98435966249788</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -806,12 +736,6 @@
       <c r="B12" t="n">
         <v>35</v>
       </c>
-      <c r="C12" t="n">
-        <v>-1.216503804430944</v>
-      </c>
-      <c r="D12" t="n">
-        <v>71.8259297486007</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -820,12 +744,6 @@
       <c r="B13" t="n">
         <v>35</v>
       </c>
-      <c r="C13" t="n">
-        <v>-4.044961993805395</v>
-      </c>
-      <c r="D13" t="n">
-        <v>70.68043647529622</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -834,12 +752,6 @@
       <c r="B14" t="n">
         <v>35</v>
       </c>
-      <c r="C14" t="n">
-        <v>-3.658791758507211</v>
-      </c>
-      <c r="D14" t="n">
-        <v>71.62868853818114</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -848,12 +760,6 @@
       <c r="B15" t="n">
         <v>35</v>
       </c>
-      <c r="C15" t="n">
-        <v>-0.2416966613679906</v>
-      </c>
-      <c r="D15" t="n">
-        <v>70.98745989549245</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -862,12 +768,6 @@
       <c r="B16" t="n">
         <v>35</v>
       </c>
-      <c r="C16" t="n">
-        <v>-3.333810700980243</v>
-      </c>
-      <c r="D16" t="n">
-        <v>71.25297659124975</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -876,12 +776,6 @@
       <c r="B17" t="n">
         <v>35</v>
       </c>
-      <c r="C17" t="n">
-        <v>-2.970782527550342</v>
-      </c>
-      <c r="D17" t="n">
-        <v>70.67009716549551</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -890,12 +784,6 @@
       <c r="B18" t="n">
         <v>35</v>
       </c>
-      <c r="C18" t="n">
-        <v>-1.151534300639297</v>
-      </c>
-      <c r="D18" t="n">
-        <v>74.04969728370642</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -904,12 +792,6 @@
       <c r="B19" t="n">
         <v>35</v>
       </c>
-      <c r="C19" t="n">
-        <v>-0.8246183840761592</v>
-      </c>
-      <c r="D19" t="n">
-        <v>73.9636143809456</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -918,12 +800,6 @@
       <c r="B20" t="n">
         <v>35</v>
       </c>
-      <c r="C20" t="n">
-        <v>-3.082794757272273</v>
-      </c>
-      <c r="D20" t="n">
-        <v>70.72717948488932</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -931,12 +807,6 @@
       </c>
       <c r="B21" t="n">
         <v>35</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-0.2571064366668978</v>
-      </c>
-      <c r="D21" t="n">
-        <v>70.88579969423517</v>
       </c>
     </row>
   </sheetData>
